--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_22_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_22_5.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999871106243301</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991034572850123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999990757724171</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9999952380144066</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9999972399098151</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.203166640963933e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008368832707641243</v>
       </c>
       <c r="I2" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>4.514791295222312e-07</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003750529194334051</v>
+        <v>2.892400126784101e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001885958086047197</v>
+        <v>1.671939628153166e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002516715597942315</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003468669256305554</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000018196765652</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.00361633768768171</v>
       </c>
       <c r="P2" t="n">
-        <v>100.40878827957</v>
+        <v>104.6559370328077</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.3826970991662</v>
+        <v>154.6298458524039</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_22</t>
+          <t>model_22_5_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999883909170303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.99909999619777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999966424132931</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9999888485838633</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9999930553992894</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.083656937234759e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008401140437806404</v>
       </c>
       <c r="I3" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.640159146648695e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0003750529194334051</v>
+        <v>6.773300089821032e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001885958086047197</v>
+        <v>4.206729618234863e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002577637034067506</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.00329189449593203</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000016389293604</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003432037259784883</v>
       </c>
       <c r="P3" t="n">
-        <v>100.40878827957</v>
+        <v>104.8651681812168</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.3826970991662</v>
+        <v>154.839077000813</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_21</t>
+          <t>model_22_5_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999890092610315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990959810249931</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.999993221997355</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9999805209325495</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9999875011660823</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.025937238942496e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008438620313221323</v>
       </c>
       <c r="I4" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>3.311009961832832e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003750529194334051</v>
+        <v>1.183146316977615e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001885958086047197</v>
+        <v>7.571236565804491e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002636584509557837</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003203025505584519</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000015516337367</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003339384932534108</v>
       </c>
       <c r="P4" t="n">
-        <v>100.40878827957</v>
+        <v>104.974637781428</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.3826970991662</v>
+        <v>154.9485466010242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_20</t>
+          <t>model_22_5_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.999989121353117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990917502648763</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999892971998816</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.999970690589658</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9999809901833046</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.01547393478853e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008478112601823097</v>
       </c>
       <c r="I5" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>5.228247858112957e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0003750529194334051</v>
+        <v>1.780235167162043e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001885958086047197</v>
+        <v>1.15152997648667e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002690649612765584</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.00318665017657811</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000015358089717</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003322312471870292</v>
       </c>
       <c r="P5" t="n">
-        <v>100.40878827957</v>
+        <v>104.9951400612572</v>
       </c>
       <c r="Q5" t="n">
-        <v>150.3826970991662</v>
+        <v>154.9690488808534</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_19</t>
+          <t>model_22_5_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999888591984007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990876910969019</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999854075524841</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9999596309459255</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.999973877060634</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.039944926818427e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008516003153095339</v>
       </c>
       <c r="I6" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>7.12831517228787e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0003750529194334051</v>
+        <v>2.451990977981244e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001885958086047197</v>
+        <v>1.582411247605015e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002736669709912831</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003224817710845726</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000015728190493</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003362104877089368</v>
       </c>
       <c r="P6" t="n">
-        <v>100.40878827957</v>
+        <v>104.9475154164028</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.3826970991662</v>
+        <v>154.921424235999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_18</t>
+          <t>model_22_5_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999883013205006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990838743939415</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999816858330502</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9999476331078937</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9999663612823846</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.092020379999595e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.000855163039989095</v>
       </c>
       <c r="I7" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>8.946350774479623e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0003750529194334051</v>
+        <v>3.180732121013673e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001885958086047197</v>
+        <v>2.037683599230817e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002777710590210659</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003304573164569965</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000016515782823</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003445255685595198</v>
       </c>
       <c r="P7" t="n">
-        <v>100.40878827957</v>
+        <v>104.8497918496367</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.3826970991662</v>
+        <v>154.823700669233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_17</t>
+          <t>model_22_5_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999875491448326</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990804756696349</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999785046089609</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9999349456716111</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9999587188788199</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.162232676940127e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008583355999426136</v>
       </c>
       <c r="I8" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.050035793591136e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0003750529194334051</v>
+        <v>3.951359028476456e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001885958086047197</v>
+        <v>2.500626348129528e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002814413427796607</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003409153380151922</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000017577677883</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003554288097465369</v>
       </c>
       <c r="P8" t="n">
-        <v>100.40878827957</v>
+        <v>104.7251651765099</v>
       </c>
       <c r="Q8" t="n">
-        <v>150.3826970991662</v>
+        <v>154.6990739961061</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_16</t>
+          <t>model_22_5_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999866299697361</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990775472382276</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999758925344385</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9999215751517696</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9999509611503827</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.248033637491453e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.000861069162118023</v>
       </c>
       <c r="I9" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.177633925628266e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0003750529194334051</v>
+        <v>4.76347600208308e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001885958086047197</v>
+        <v>2.970554963855673e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002844748337918559</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003532751954909166</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000018875336843</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.00368314851943435</v>
       </c>
       <c r="P9" t="n">
-        <v>100.40878827957</v>
+        <v>104.5827124845361</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.3826970991662</v>
+        <v>154.5566213041324</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_15</t>
+          <t>model_22_5_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999856210075517</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990751349552294</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999740143860321</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9999078839185062</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9999433397311216</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.342215828566437e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.000863320922409887</v>
       </c>
       <c r="I10" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.269380246915589e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0003750529194334051</v>
+        <v>5.595072907412891e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001885958086047197</v>
+        <v>3.43222657716424e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002865708975142524</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003663626384562755</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000020299754045</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003819594544505711</v>
       </c>
       <c r="P10" t="n">
-        <v>100.40878827957</v>
+        <v>104.4372072265928</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.3826970991662</v>
+        <v>154.411116046189</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_14</t>
+          <t>model_22_5_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999845438805979</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990731919874772</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999727412363411</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9998940094435081</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9999358703848154</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.442760901663619e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008651345975200814</v>
       </c>
       <c r="I11" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.331572776642876e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0003750529194334051</v>
+        <v>6.437799800558045e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001885958086047197</v>
+        <v>3.884686288600461e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002879369990041384</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003798369257541477</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000021820403862</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003960073700543337</v>
       </c>
       <c r="P11" t="n">
-        <v>100.40878827957</v>
+        <v>104.2927337884406</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3826970991662</v>
+        <v>154.2666426080368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_13</t>
+          <t>model_22_5_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999834337364892</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990716065815788</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999719747178261</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9998802021701972</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9999286390090514</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.546387981239047e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008666145043349847</v>
       </c>
       <c r="I12" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.369016704769667e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0003750529194334051</v>
+        <v>7.276444905456987e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001885958086047197</v>
+        <v>4.322730805113327e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002886693467513951</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003932413993006137</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000023387666133</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004099824997907582</v>
       </c>
       <c r="P12" t="n">
-        <v>100.40878827957</v>
+        <v>104.1540071763582</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.3826970991662</v>
+        <v>154.1279159959544</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_23</t>
+          <t>model_22_5_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999823069677012</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990703519000997</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999716022172875</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9998665898347119</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9999216642378488</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.651566901653799e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008677856944215756</v>
       </c>
       <c r="I13" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.387213112449532e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0003750529194334051</v>
+        <v>8.103249609317658e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001885958086047197</v>
+        <v>4.745231360883595e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002889664565230899</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004063947467246346</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000152142600687</v>
+        <v>1.00002497839854</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004236958124458024</v>
       </c>
       <c r="P13" t="n">
-        <v>100.40878827957</v>
+        <v>104.0224019806242</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.3826970991662</v>
+        <v>153.9963108002204</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999812065535294</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990694100761653</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999716539490159</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9998534417004786</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9999150932497439</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.754285734329894e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008686648457229757</v>
       </c>
       <c r="I14" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.384686051352466e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0003750529194334051</v>
+        <v>8.901859020821735e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001885958086047197</v>
+        <v>5.1432725360871e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002887544801896544</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004188419432590167</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000026531924429</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004366729119059022</v>
       </c>
       <c r="P14" t="n">
-        <v>100.40878827957</v>
+        <v>103.9017273597614</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3826970991662</v>
+        <v>153.8756361793577</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_10</t>
+          <t>model_22_5_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999801115301837</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990686166575081</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999718321383073</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9998406986262388</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9999087750650469</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.856501357058038e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008694054672124657</v>
       </c>
       <c r="I15" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.375981621010482e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0003750529194334051</v>
+        <v>9.675865342846265e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001885958086047197</v>
+        <v>5.526000007485195e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002884771414936705</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004308713679345657</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000028077839741</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004492144540942311</v>
       </c>
       <c r="P15" t="n">
-        <v>100.40878827957</v>
+        <v>103.7884634787178</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.3826970991662</v>
+        <v>153.7623722983141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_9</t>
+          <t>model_22_5_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999790482449846</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990679848630095</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999721596673734</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9998285223536862</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9999028037895852</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.955754363112946e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008699952196443348</v>
       </c>
       <c r="I16" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.359982040345157e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0003750529194334051</v>
+        <v>0.0001041544448654276</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001885958086047197</v>
+        <v>5.88771326344396e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002879466753581348</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004422391166680019</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000029578948257</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004610661514257338</v>
       </c>
       <c r="P16" t="n">
-        <v>100.40878827957</v>
+        <v>103.6842989649484</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.3826970991662</v>
+        <v>153.6582077845446</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_8</t>
+          <t>model_22_5_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999780257545861</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990674629448424</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999725654852613</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.999816987633692</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9998971844614893</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.051199353600785e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008704824073437538</v>
       </c>
       <c r="I17" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.340158101939723e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0003750529194334051</v>
+        <v>0.0001111605613098184</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001885958086047197</v>
+        <v>6.228107116460783e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.000287326898281378</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004529016839890072</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000031022464114</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004721826463121514</v>
       </c>
       <c r="P17" t="n">
-        <v>100.40878827957</v>
+        <v>103.5890015847166</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3826970991662</v>
+        <v>153.5629104043128</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_7</t>
+          <t>model_22_5_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999770585524038</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990670116879822</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999730063493575</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.999806214779054</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9998919612273008</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.141483431784034e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008709036358149087</v>
       </c>
       <c r="I18" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.318622179182416e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0003750529194334051</v>
+        <v>0.0001177039255241129</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001885958086047197</v>
+        <v>6.54450736579685e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002865843334060198</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004627616483443755</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000032387926018</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004824623697630676</v>
       </c>
       <c r="P18" t="n">
-        <v>100.40878827957</v>
+        <v>103.5028533673218</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.3826970991662</v>
+        <v>153.4767621869181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_6</t>
+          <t>model_22_5_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999761452997135</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990666130874424</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999734482900838</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9997961682554865</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.999887102574947</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.226731561719434e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008712757119223086</v>
       </c>
       <c r="I19" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.297033663741019e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0003750529194334051</v>
+        <v>0.0001238061208101629</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001885958086047197</v>
+        <v>6.838822872378657e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002857849297642425</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.00471882566081799</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000033677223934</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004919715838514759</v>
       </c>
       <c r="P19" t="n">
-        <v>100.40878827957</v>
+        <v>103.4247812440594</v>
       </c>
       <c r="Q19" t="n">
-        <v>150.3826970991662</v>
+        <v>153.3986900636556</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_5</t>
+          <t>model_22_5_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999752804501559</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990662560837131</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999738592362508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9997867851604284</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9998825640366578</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.307461471657605e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008716089592328569</v>
       </c>
       <c r="I20" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.276959212254468e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0003750529194334051</v>
+        <v>0.0001295053537883637</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001885958086047197</v>
+        <v>7.11374729554542e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002850794578246205</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004803604346381584</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000034898188015</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005008103728238868</v>
       </c>
       <c r="P20" t="n">
-        <v>100.40878827957</v>
+        <v>103.3535549494424</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3826970991662</v>
+        <v>153.3274637690386</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_4</t>
+          <t>model_22_5_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999744687095035</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990659129121456</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999742255372144</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9997780861811537</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9998783504799666</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.383233898434503e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008719292948276617</v>
       </c>
       <c r="I21" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.259065649759359e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0003750529194334051</v>
+        <v>0.0001347890591384494</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001885958086047197</v>
+        <v>7.368985781802152e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002844268379162452</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004881837664685812</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000036044174819</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005089667600868602</v>
       </c>
       <c r="P21" t="n">
-        <v>100.40878827957</v>
+        <v>103.2889342374787</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.3826970991662</v>
+        <v>153.2628430570749</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_3</t>
+          <t>model_22_5_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999737188265542</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.999065592892913</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999745667348601</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.999770117918639</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9998744931478653</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.453232180150329e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008722280187341519</v>
       </c>
       <c r="I22" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.242398367921124e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0003750529194334051</v>
+        <v>0.0001396289317201005</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001885958086047197</v>
+        <v>7.602645769965588e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002837572641890142</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004953011387176825</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000152142600687</v>
+        <v>1.0000371028331</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005163871336075973</v>
       </c>
       <c r="P22" t="n">
-        <v>100.40878827957</v>
+        <v>103.2310381053291</v>
       </c>
       <c r="Q22" t="n">
-        <v>150.3826970991662</v>
+        <v>153.2049469249253</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_2</t>
+          <t>model_22_5_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999730179836861</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990652904743144</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999748591554287</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9997627540079396</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9998709191415027</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.518652785537181e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008725103132213128</v>
       </c>
       <c r="I23" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.228113814392289e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0003750529194334051</v>
+        <v>0.0001441017248067343</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001885958086047197</v>
+        <v>7.819143147532859e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002831838588759971</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.005018618122090165</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000038092258325</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005232271085519239</v>
       </c>
       <c r="P23" t="n">
-        <v>100.40878827957</v>
+        <v>103.17840263063</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3826970991662</v>
+        <v>153.1523114502263</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_1</t>
+          <t>model_22_5_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999723677552049</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990650113725044</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999751220668688</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9997559853754661</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9998676327506586</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.579348760088034e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008727708425097842</v>
       </c>
       <c r="I24" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.215270762502347e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0003750529194334051</v>
+        <v>0.0001482129496394171</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001885958086047197</v>
+        <v>8.018218058778177e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002826287463422432</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.005078728935558614</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000039010227946</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005294940940763578</v>
       </c>
       <c r="P24" t="n">
-        <v>100.40878827957</v>
+        <v>103.1307770329403</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.3826970991662</v>
+        <v>153.1046858525366</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_5_11</t>
+          <t>model_22_5_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999717763663852</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990647532010229</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999753723824586</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9997498320745269</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9998646476392739</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.634552310506224e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008730118342552648</v>
       </c>
       <c r="I25" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.203043009649949e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0003750529194334051</v>
+        <v>0.0001519504259645989</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001885958086047197</v>
+        <v>8.199042803054918e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.000282079863042719</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.005132789018171528</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000039845129809</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005351302473013121</v>
       </c>
       <c r="P25" t="n">
-        <v>100.40878827957</v>
+        <v>103.0884243970958</v>
       </c>
       <c r="Q25" t="n">
-        <v>150.3826970991662</v>
+        <v>153.062333216692</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.999971233946528</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990645113093306</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999963067771106</v>
+        <v>0.9999755884866944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9997192998334331</v>
+        <v>0.9997442367566998</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998217748704381</v>
+        <v>0.9998619295494326</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.685184823233714e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008732376295322321</v>
       </c>
       <c r="I26" t="n">
-        <v>2.138697776034388e-06</v>
+        <v>1.192486459070029e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0003750529194334051</v>
+        <v>0.0001553489868538221</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001885958086047197</v>
+        <v>8.36369257222612e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002815696325718019</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.005181876902468558</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000040610899019</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005402480130170606</v>
       </c>
       <c r="P26" t="n">
-        <v>100.40878827957</v>
+        <v>103.0503518078193</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3826970991662</v>
+        <v>153.0242606274155</v>
       </c>
     </row>
   </sheetData>
